--- a/data/out/cities.xlsx
+++ b/data/out/cities.xlsx
@@ -420,6 +420,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -461,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>8</t>
         </is>
       </c>
     </row>

--- a/data/out/cities.xlsx
+++ b/data/out/cities.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>83.9</t>
         </is>
       </c>
     </row>

--- a/data/out/cities.xlsx
+++ b/data/out/cities.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8405837</t>
+          <t>986312</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
